--- a/biology/Botanique/William_Lobb_(rose)/William_Lobb_(rose).xlsx
+++ b/biology/Botanique/William_Lobb_(rose)/William_Lobb_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'William Lobb' est un cultivar de rosier mousseux obtenu en 1855 par le Français Jean Laffay[1]. Il doit son nom à l'horticulteur anglais William Lobb[2], frère de Thomas Lobb[3].
+'William Lobb' est un cultivar de rosier mousseux obtenu en 1855 par le Français Jean Laffay. Il doit son nom à l'horticulteur anglais William Lobb, frère de Thomas Lobb.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste de grande taille au minimum de 2 mètres, au feuillage vert foncé. Ses fleurs de couleur pourpre devenant lilas argenté fur et à mesure, au centre blanc, sont grandes, semi-doubles et fleurissent une seule fois de façon très généreuse en corymbes de 10 à 20 fleurs. La mousse de ce rosier historique est abondante.
-Cette variété est connue pour bien supporter les hivers rigoureux[1]. Elle a toujours du succès dans les catalogues internationaux grâce à sa couleur très délicate[4].
+Cette variété est connue pour bien supporter les hivers rigoureux. Elle a toujours du succès dans les catalogues internationaux grâce à sa couleur très délicate.
 </t>
         </is>
       </c>
